--- a/BEC/05-词汇相关/BEC短语随身记.xlsx
+++ b/BEC/05-词汇相关/BEC短语随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060"/>
+    <workbookView windowWidth="10895" windowHeight="9624"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="385">
   <si>
     <t>英语</t>
   </si>
@@ -845,7 +845,405 @@
 Could you stop by the store on the way home for some bread?</t>
   </si>
   <si>
-    <t>已学完42课</t>
+    <t>pass sth. on to sb.
+= pass on sth. to sb.</t>
+  </si>
+  <si>
+    <t>把东西转交给某人，把东西递给某人</t>
+  </si>
+  <si>
+    <t>be through to...</t>
+  </si>
+  <si>
+    <t>和。。。接通</t>
+  </si>
+  <si>
+    <t>junk mail
+= spam</t>
+  </si>
+  <si>
+    <t>垃圾邮件</t>
+  </si>
+  <si>
+    <t>paediatric</t>
+  </si>
+  <si>
+    <t>儿科的</t>
+  </si>
+  <si>
+    <t>heart surgery</t>
+  </si>
+  <si>
+    <t>心脏手续</t>
+  </si>
+  <si>
+    <t>marketing expertise</t>
+  </si>
+  <si>
+    <t>销售技能</t>
+  </si>
+  <si>
+    <t>focus group</t>
+  </si>
+  <si>
+    <t>焦点小组</t>
+  </si>
+  <si>
+    <t>succeed in</t>
+  </si>
+  <si>
+    <t>有活力的</t>
+  </si>
+  <si>
+    <t>achieve success</t>
+  </si>
+  <si>
+    <t>获得成功</t>
+  </si>
+  <si>
+    <t>方面</t>
+  </si>
+  <si>
+    <t>set target</t>
+  </si>
+  <si>
+    <t>set out with sth.</t>
+  </si>
+  <si>
+    <t>制定
+She set out to break the world record.</t>
+  </si>
+  <si>
+    <t>team up (with sb.)</t>
+  </si>
+  <si>
+    <t>组成团队</t>
+  </si>
+  <si>
+    <t>fill(in) the gaps</t>
+  </si>
+  <si>
+    <t>弥补空缺</t>
+  </si>
+  <si>
+    <t>generation gap</t>
+  </si>
+  <si>
+    <t>代沟
+widen/broaden/narrow the gaps</t>
+  </si>
+  <si>
+    <t>be down to sth.
+= be caused by</t>
+  </si>
+  <si>
+    <t>归结为某事造成的</t>
+  </si>
+  <si>
+    <t>be down to sb.</t>
+  </si>
+  <si>
+    <t>该由某人负责
+It's down to you to check the door.
+I'm down to my last dollar.</t>
+  </si>
+  <si>
+    <t>get a kick out of it</t>
+  </si>
+  <si>
+    <t>表达快乐、激动之情</t>
+  </si>
+  <si>
+    <t>gigs</t>
+  </si>
+  <si>
+    <t>公演</t>
+  </si>
+  <si>
+    <t>to be safe</t>
+  </si>
+  <si>
+    <t>保险起见</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>场所</t>
+  </si>
+  <si>
+    <t>jump at sth.</t>
+  </si>
+  <si>
+    <t>热切地抓住(机会)</t>
+  </si>
+  <si>
+    <t>move up
+= move over</t>
+  </si>
+  <si>
+    <t>晋升</t>
+  </si>
+  <si>
+    <t>hands-on</t>
+  </si>
+  <si>
+    <t>亲力亲为的</t>
+  </si>
+  <si>
+    <t>do one's bit</t>
+  </si>
+  <si>
+    <t>尽某人的力量/本分</t>
+  </si>
+  <si>
+    <t>step in</t>
+  </si>
+  <si>
+    <t>帮助，介入</t>
+  </si>
+  <si>
+    <t>be looking to do sth.</t>
+  </si>
+  <si>
+    <t>努力寻找解决办法</t>
+  </si>
+  <si>
+    <t>safe from sth.</t>
+  </si>
+  <si>
+    <t>免于。。。</t>
+  </si>
+  <si>
+    <t>carbon emission</t>
+  </si>
+  <si>
+    <t>碳排放</t>
+  </si>
+  <si>
+    <t>emit</t>
+  </si>
+  <si>
+    <t>send out sth.</t>
+  </si>
+  <si>
+    <t>rush to do sth.</t>
+  </si>
+  <si>
+    <t>匆忙去做</t>
+  </si>
+  <si>
+    <t>cautious optimism</t>
+  </si>
+  <si>
+    <t>谨慎乐观态度</t>
+  </si>
+  <si>
+    <t>tax credit</t>
+  </si>
+  <si>
+    <t>税金优惠</t>
+  </si>
+  <si>
+    <t>tax deduction</t>
+  </si>
+  <si>
+    <t>税收减免</t>
+  </si>
+  <si>
+    <t>subsidy</t>
+  </si>
+  <si>
+    <t>津贴，补助金</t>
+  </si>
+  <si>
+    <t>residential electricity</t>
+  </si>
+  <si>
+    <t>民用电</t>
+  </si>
+  <si>
+    <t>non-residential electricity</t>
+  </si>
+  <si>
+    <t>非民用电</t>
+  </si>
+  <si>
+    <t>be on to sth.</t>
+  </si>
+  <si>
+    <t>认识到。。。的重要性</t>
+  </si>
+  <si>
+    <t>solar panel</t>
+  </si>
+  <si>
+    <t>太阳能板</t>
+  </si>
+  <si>
+    <t>electric power</t>
+  </si>
+  <si>
+    <t>电力
+electric power meter 电表</t>
+  </si>
+  <si>
+    <t>solar cells</t>
+  </si>
+  <si>
+    <t>太阳能电池</t>
+  </si>
+  <si>
+    <t>punctuation</t>
+  </si>
+  <si>
+    <t>标点符号</t>
+  </si>
+  <si>
+    <t>optional extra</t>
+  </si>
+  <si>
+    <t>附加的东西</t>
+  </si>
+  <si>
+    <t>punchy</t>
+  </si>
+  <si>
+    <t>言简意赅的</t>
+  </si>
+  <si>
+    <t>shortlist
+= candidate list</t>
+  </si>
+  <si>
+    <t>候选名单</t>
+  </si>
+  <si>
+    <t>mean doing sth.</t>
+  </si>
+  <si>
+    <t>意味着</t>
+  </si>
+  <si>
+    <t>sign off</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>sue sb. for sth.</t>
+  </si>
+  <si>
+    <t>因某事控告某人</t>
+  </si>
+  <si>
+    <t>prosecure</t>
+  </si>
+  <si>
+    <t>指控，起诉
+The company was prosecured for breaching the Health and Safety Act.</t>
+  </si>
+  <si>
+    <t>prosecutor</t>
+  </si>
+  <si>
+    <t>原告</t>
+  </si>
+  <si>
+    <t>defendant
+= the accused
+= defence</t>
+  </si>
+  <si>
+    <t>被告</t>
+  </si>
+  <si>
+    <t>set about doing sth.</t>
+  </si>
+  <si>
+    <t>着手做。。。</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>新闻界
+press release
+新闻稿，通讯稿</t>
+  </si>
+  <si>
+    <t>high-flyer
+= high-flier</t>
+  </si>
+  <si>
+    <t>非常有抱负的人</t>
+  </si>
+  <si>
+    <t>poach sb./sth. (from sb./sth.)</t>
+  </si>
+  <si>
+    <t>挖人</t>
+  </si>
+  <si>
+    <t>run + adj.</t>
+  </si>
+  <si>
+    <t>变得(多指不好的情况)
+The river ran dry(= stopped flowing) during the drought.</t>
+  </si>
+  <si>
+    <t>excess capacity</t>
+  </si>
+  <si>
+    <t>过剩生产能力</t>
+  </si>
+  <si>
+    <t>buy up</t>
+  </si>
+  <si>
+    <t>买光</t>
+  </si>
+  <si>
+    <t>use up</t>
+  </si>
+  <si>
+    <t>用光</t>
+  </si>
+  <si>
+    <t>sell on</t>
+  </si>
+  <si>
+    <t>转手卖</t>
+  </si>
+  <si>
+    <t>arise from</t>
+  </si>
+  <si>
+    <t>由。。。引起</t>
+  </si>
+  <si>
+    <t>established company</t>
+  </si>
+  <si>
+    <t>知名公司</t>
+  </si>
+  <si>
+    <t>internal means</t>
+  </si>
+  <si>
+    <t>内部手段</t>
+  </si>
+  <si>
+    <t>cunsumer goods industries</t>
+  </si>
+  <si>
+    <t>消费型产业</t>
+  </si>
+  <si>
+    <t>be driven by</t>
+  </si>
+  <si>
+    <t>受。。。驱使</t>
   </si>
 </sst>
 </file>
@@ -1804,12 +2202,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -2848,9 +3246,524 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="46.8" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>257</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" ht="31.2" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" ht="78" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" ht="62.4" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" ht="31.2" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" ht="109.2" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" ht="31.2" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" ht="31.2" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" ht="31.2" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" ht="31.2" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" ht="31.2" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" ht="62.4" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" ht="31.2" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" ht="109.2" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" ht="46.8" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" ht="46.8" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" ht="31.2" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" ht="31.2" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" ht="93.6" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" ht="31.2" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
